--- a/trafficdata.xlsx
+++ b/trafficdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Inside\Profiles\petep\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wd\rcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,14 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$5:$A$26</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$3:$B$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$5:$B$26</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$25</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$2:$B$25</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$3</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,18 +24,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Tstart</t>
+    <t>hour</t>
   </si>
   <si>
-    <t>mean.t</t>
+    <t>Sunday</t>
   </si>
   <si>
-    <t>mean.wd</t>
+    <t>Monday</t>
   </si>
   <si>
-    <t>mean.we</t>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Weekdays</t>
+  </si>
+  <si>
+    <t>Weekends</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -373,7 +386,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,35 +401,35 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>43870</v>
-      </c>
-      <c r="C1" s="2">
-        <v>43871</v>
-      </c>
-      <c r="D1" s="2">
-        <v>43872</v>
-      </c>
-      <c r="E1" s="2">
-        <v>43873</v>
-      </c>
-      <c r="F1" s="2">
-        <v>43874</v>
-      </c>
-      <c r="G1" s="2">
-        <v>43875</v>
-      </c>
-      <c r="H1" s="2">
-        <v>43869</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -453,7 +466,7 @@
         <v>12.5</v>
       </c>
       <c r="K2" s="3">
-        <f>AVERAGE(B2:H2)</f>
+        <f t="shared" ref="K2:K25" si="0">AVERAGE(B2:H2)</f>
         <v>7.5714285714285712</v>
       </c>
     </row>
@@ -484,21 +497,21 @@
         <v>3</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I25" si="0">AVERAGE(C3:G3)</f>
+        <f t="shared" ref="I3:I25" si="1">AVERAGE(C3:G3)</f>
         <v>2.4</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J25" si="1">AVERAGE(B3,H3)</f>
+        <f t="shared" ref="J3:J25" si="2">AVERAGE(B3,H3)</f>
         <v>4.5</v>
       </c>
       <c r="K3" s="3">
-        <f>AVERAGE(B3:H3)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A25" si="2">A3+1</f>
+        <f t="shared" ref="A4:A25" si="3">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -523,21 +536,21 @@
         <v>4</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="K4" s="3">
-        <f>AVERAGE(B4:H4)</f>
+        <f t="shared" si="0"/>
         <v>3.4285714285714284</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -562,21 +575,21 @@
         <v>7</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="K5" s="3">
-        <f>AVERAGE(B5:H5)</f>
+        <f t="shared" si="0"/>
         <v>8.2857142857142865</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -601,21 +614,21 @@
         <v>10</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.799999999999997</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K6" s="3">
-        <f>AVERAGE(B6:H6)</f>
+        <f t="shared" si="0"/>
         <v>30.571428571428573</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -640,21 +653,21 @@
         <v>23</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126.2</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="K7" s="3">
-        <f>AVERAGE(B7:H7)</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="1">
@@ -679,21 +692,21 @@
         <v>64</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>277.8</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="K8" s="3">
-        <f>AVERAGE(B8:H8)</f>
+        <f t="shared" si="0"/>
         <v>215.85714285714286</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="1">
@@ -718,21 +731,21 @@
         <v>114</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>548</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="K9" s="3">
-        <f>AVERAGE(B9:H9)</f>
+        <f t="shared" si="0"/>
         <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="1">
@@ -757,21 +770,21 @@
         <v>152</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="K10" s="3">
-        <f>AVERAGE(B10:H10)</f>
+        <f t="shared" si="0"/>
         <v>365.14285714285717</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="1">
@@ -796,21 +809,21 @@
         <v>245</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>262.8</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>228.5</v>
       </c>
       <c r="K11" s="3">
-        <f>AVERAGE(B11:H11)</f>
+        <f t="shared" si="0"/>
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="1">
@@ -835,21 +848,21 @@
         <v>253</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>206.2</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250.5</v>
       </c>
       <c r="K12" s="3">
-        <f>AVERAGE(B12:H12)</f>
+        <f t="shared" si="0"/>
         <v>218.85714285714286</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="1">
@@ -874,21 +887,21 @@
         <v>239</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210.4</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>232</v>
       </c>
       <c r="K13" s="3">
-        <f>AVERAGE(B13:H13)</f>
+        <f t="shared" si="0"/>
         <v>216.57142857142858</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="1">
@@ -913,21 +926,21 @@
         <v>229</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210.8</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>214</v>
       </c>
       <c r="K14" s="3">
-        <f>AVERAGE(B14:H14)</f>
+        <f t="shared" si="0"/>
         <v>211.71428571428572</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="1">
@@ -952,21 +965,21 @@
         <v>255</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>215.6</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>237</v>
       </c>
       <c r="K15" s="3">
-        <f>AVERAGE(B15:H15)</f>
+        <f t="shared" si="0"/>
         <v>221.71428571428572</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="1">
@@ -991,21 +1004,21 @@
         <v>202</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>229.8</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>201</v>
       </c>
       <c r="K16" s="3">
-        <f>AVERAGE(B16:H16)</f>
+        <f t="shared" si="0"/>
         <v>221.57142857142858</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="1">
@@ -1030,21 +1043,21 @@
         <v>260</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>260.60000000000002</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>228.5</v>
       </c>
       <c r="K17" s="3">
-        <f>AVERAGE(B17:H17)</f>
+        <f t="shared" si="0"/>
         <v>251.42857142857142</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="1">
@@ -1069,21 +1082,21 @@
         <v>226</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>280.8</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>219.5</v>
       </c>
       <c r="K18" s="3">
-        <f>AVERAGE(B18:H18)</f>
+        <f t="shared" si="0"/>
         <v>263.28571428571428</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="1">
@@ -1108,21 +1121,21 @@
         <v>195</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>272.39999999999998</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="K19" s="3">
-        <f>AVERAGE(B19:H19)</f>
+        <f t="shared" si="0"/>
         <v>246.28571428571428</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="1">
@@ -1147,21 +1160,21 @@
         <v>144</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>181</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>143.5</v>
       </c>
       <c r="K20" s="3">
-        <f>AVERAGE(B20:H20)</f>
+        <f t="shared" si="0"/>
         <v>170.28571428571428</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="1">
@@ -1186,21 +1199,21 @@
         <v>75</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="K21" s="3">
-        <f>AVERAGE(B21:H21)</f>
+        <f t="shared" si="0"/>
         <v>101.85714285714286</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="1">
@@ -1225,21 +1238,21 @@
         <v>63</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.5</v>
       </c>
       <c r="K22" s="3">
-        <f>AVERAGE(B22:H22)</f>
+        <f t="shared" si="0"/>
         <v>65.428571428571431</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="1">
@@ -1264,21 +1277,21 @@
         <v>49</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45.6</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="K23" s="3">
-        <f>AVERAGE(B23:H23)</f>
+        <f t="shared" si="0"/>
         <v>45.428571428571431</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="1">
@@ -1303,21 +1316,21 @@
         <v>36</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.2</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.5</v>
       </c>
       <c r="K24" s="3">
-        <f>AVERAGE(B24:H24)</f>
+        <f t="shared" si="0"/>
         <v>20.428571428571427</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="1">
@@ -1342,15 +1355,15 @@
         <v>16</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="K25" s="3">
-        <f>AVERAGE(B25:H25)</f>
+        <f t="shared" si="0"/>
         <v>10.857142857142858</v>
       </c>
     </row>

--- a/trafficdata.xlsx
+++ b/trafficdata.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wd\rcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppham\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B856F6EE-8202-46D4-89E3-EC80A91AFD50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="12270"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="eb" sheetId="1" r:id="rId1"/>
+    <sheet name="wb" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>hour</t>
   </si>
@@ -58,11 +68,17 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Weekday</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,7 +398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1373,4 +1389,648 @@
     <ignoredError sqref="I2:I25 K2" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C5945F-82D0-443D-8269-F4289A80DB1E}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="7" width="10.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1">
+        <f>AVERAGE(B2:F2)</f>
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G25" si="0">AVERAGE(B3:F3)</f>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A25" si="1">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>83</v>
+      </c>
+      <c r="C8" s="1">
+        <v>94</v>
+      </c>
+      <c r="D8" s="1">
+        <v>72</v>
+      </c>
+      <c r="E8" s="1">
+        <v>86</v>
+      </c>
+      <c r="F8" s="1">
+        <v>77</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>186</v>
+      </c>
+      <c r="C9" s="1">
+        <v>154</v>
+      </c>
+      <c r="D9" s="1">
+        <v>179</v>
+      </c>
+      <c r="E9" s="1">
+        <v>174</v>
+      </c>
+      <c r="F9" s="1">
+        <v>146</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>167.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>160</v>
+      </c>
+      <c r="C10" s="1">
+        <v>166</v>
+      </c>
+      <c r="D10" s="1">
+        <v>161</v>
+      </c>
+      <c r="E10" s="1">
+        <v>178</v>
+      </c>
+      <c r="F10" s="1">
+        <v>196</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>172.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>143</v>
+      </c>
+      <c r="C11" s="1">
+        <v>138</v>
+      </c>
+      <c r="D11" s="1">
+        <v>147</v>
+      </c>
+      <c r="E11" s="1">
+        <v>131</v>
+      </c>
+      <c r="F11" s="1">
+        <v>155</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>142.80000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>148</v>
+      </c>
+      <c r="C12" s="1">
+        <v>130</v>
+      </c>
+      <c r="D12" s="1">
+        <v>148</v>
+      </c>
+      <c r="E12" s="1">
+        <v>168</v>
+      </c>
+      <c r="F12" s="1">
+        <v>149</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>148.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>211</v>
+      </c>
+      <c r="C13" s="1">
+        <v>201</v>
+      </c>
+      <c r="D13" s="1">
+        <v>219</v>
+      </c>
+      <c r="E13" s="1">
+        <v>214</v>
+      </c>
+      <c r="F13" s="1">
+        <v>247</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>218.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>226</v>
+      </c>
+      <c r="C14" s="1">
+        <v>208</v>
+      </c>
+      <c r="D14" s="1">
+        <v>235</v>
+      </c>
+      <c r="E14" s="1">
+        <v>239</v>
+      </c>
+      <c r="F14" s="1">
+        <v>279</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>237.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>209</v>
+      </c>
+      <c r="C15" s="1">
+        <v>243</v>
+      </c>
+      <c r="D15" s="1">
+        <v>225</v>
+      </c>
+      <c r="E15" s="1">
+        <v>256</v>
+      </c>
+      <c r="F15" s="1">
+        <v>328</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>252.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>271</v>
+      </c>
+      <c r="C16" s="1">
+        <v>289</v>
+      </c>
+      <c r="D16" s="1">
+        <v>268</v>
+      </c>
+      <c r="E16" s="1">
+        <v>283</v>
+      </c>
+      <c r="F16" s="1">
+        <v>334</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>399</v>
+      </c>
+      <c r="C17" s="1">
+        <v>432</v>
+      </c>
+      <c r="D17" s="1">
+        <v>400</v>
+      </c>
+      <c r="E17" s="1">
+        <v>415</v>
+      </c>
+      <c r="F17" s="1">
+        <v>401</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>409.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>521</v>
+      </c>
+      <c r="C18" s="1">
+        <v>536</v>
+      </c>
+      <c r="D18" s="1">
+        <v>549</v>
+      </c>
+      <c r="E18" s="1">
+        <v>506</v>
+      </c>
+      <c r="F18" s="1">
+        <v>494</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>521.20000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>566</v>
+      </c>
+      <c r="C19" s="1">
+        <v>611</v>
+      </c>
+      <c r="D19" s="1">
+        <v>581</v>
+      </c>
+      <c r="E19" s="1">
+        <v>560</v>
+      </c>
+      <c r="F19" s="1">
+        <v>519</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>567.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>349</v>
+      </c>
+      <c r="C20" s="1">
+        <v>390</v>
+      </c>
+      <c r="D20" s="1">
+        <v>389</v>
+      </c>
+      <c r="E20" s="1">
+        <v>387</v>
+      </c>
+      <c r="F20" s="1">
+        <v>329</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>368.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>226</v>
+      </c>
+      <c r="C21" s="1">
+        <v>224</v>
+      </c>
+      <c r="D21" s="1">
+        <v>268</v>
+      </c>
+      <c r="E21" s="1">
+        <v>238</v>
+      </c>
+      <c r="F21" s="1">
+        <v>194</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>168</v>
+      </c>
+      <c r="C22" s="1">
+        <v>178</v>
+      </c>
+      <c r="D22" s="1">
+        <v>176</v>
+      </c>
+      <c r="E22" s="1">
+        <v>173</v>
+      </c>
+      <c r="F22" s="1">
+        <v>182</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>115</v>
+      </c>
+      <c r="C23" s="1">
+        <v>108</v>
+      </c>
+      <c r="D23" s="1">
+        <v>138</v>
+      </c>
+      <c r="E23" s="1">
+        <v>133</v>
+      </c>
+      <c r="F23" s="1">
+        <v>152</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>129.19999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1">
+        <v>60</v>
+      </c>
+      <c r="D24" s="1">
+        <v>76</v>
+      </c>
+      <c r="E24" s="1">
+        <v>78</v>
+      </c>
+      <c r="F24" s="1">
+        <v>88</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1">
+        <v>44</v>
+      </c>
+      <c r="F25" s="1">
+        <v>53</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="G2:G25" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/trafficdata.xlsx
+++ b/trafficdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppham\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppham\Documents\R\wd\rcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B856F6EE-8202-46D4-89E3-EC80A91AFD50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB51A23-5CC1-41DD-975C-9315B46CF91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eb" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>hour</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Weekday</t>
-  </si>
-  <si>
-    <t>Hour</t>
   </si>
 </sst>
 </file>
@@ -401,7 +398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1395,9 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C5945F-82D0-443D-8269-F4289A80DB1E}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1407,7 +1402,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>

--- a/trafficdata.xlsx
+++ b/trafficdata.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppham\Documents\R\wd\rcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB51A23-5CC1-41DD-975C-9315B46CF91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E4B32E-7C28-4977-A4E4-6FBBD9EDC2C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eb" sheetId="1" r:id="rId1"/>
     <sheet name="wb" sheetId="2" r:id="rId2"/>
+    <sheet name="tot" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>hour</t>
   </si>
@@ -70,6 +71,15 @@
   </si>
   <si>
     <t>Weekday</t>
+  </si>
+  <si>
+    <t>wb</t>
+  </si>
+  <si>
+    <t>eb</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -399,7 +409,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C5945F-82D0-443D-8269-F4289A80DB1E}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2028,4 +2040,321 @@
     <ignoredError sqref="G2:G25" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF02544-4144-42CC-945E-3B1479984431}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>7.5714285714285712</v>
+      </c>
+      <c r="C2" s="3">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A25" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.4285714285714284</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>8.2857142857142865</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>30.571428571428573</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>97</v>
+      </c>
+      <c r="C7" s="3">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>215.85714285714286</v>
+      </c>
+      <c r="C8" s="3">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>418</v>
+      </c>
+      <c r="C9" s="3">
+        <v>167.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>365.14285714285717</v>
+      </c>
+      <c r="C10" s="3">
+        <v>172.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>253</v>
+      </c>
+      <c r="C11" s="3">
+        <v>142.80000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>218.85714285714286</v>
+      </c>
+      <c r="C12" s="3">
+        <v>148.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>216.57142857142858</v>
+      </c>
+      <c r="C13" s="3">
+        <v>218.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>211.71428571428572</v>
+      </c>
+      <c r="C14" s="3">
+        <v>237.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>221.71428571428572</v>
+      </c>
+      <c r="C15" s="3">
+        <v>252.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>221.57142857142858</v>
+      </c>
+      <c r="C16" s="3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>251.42857142857142</v>
+      </c>
+      <c r="C17" s="3">
+        <v>409.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>263.28571428571428</v>
+      </c>
+      <c r="C18" s="3">
+        <v>521.20000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>246.28571428571428</v>
+      </c>
+      <c r="C19" s="3">
+        <v>567.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>170.28571428571428</v>
+      </c>
+      <c r="C20" s="3">
+        <v>368.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>101.85714285714286</v>
+      </c>
+      <c r="C21" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>65.428571428571431</v>
+      </c>
+      <c r="C22" s="3">
+        <v>175.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45.428571428571431</v>
+      </c>
+      <c r="C23" s="3">
+        <v>129.19999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>20.428571428571427</v>
+      </c>
+      <c r="C24" s="3">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>10.857142857142858</v>
+      </c>
+      <c r="C25" s="3">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trafficdata.xlsx
+++ b/trafficdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppham\Documents\R\wd\rcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E4B32E-7C28-4977-A4E4-6FBBD9EDC2C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42736944-D0E3-4572-9379-0192E94E6D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>hour</t>
   </si>
@@ -73,13 +73,7 @@
     <t>Weekday</t>
   </si>
   <si>
-    <t>wb</t>
-  </si>
-  <si>
-    <t>eb</t>
-  </si>
-  <si>
-    <t>h</t>
+    <t>tot</t>
   </si>
 </sst>
 </file>
@@ -2044,314 +2038,140 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF02544-4144-42CC-945E-3B1479984431}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>7.5714285714285712</v>
-      </c>
-      <c r="C2" s="3">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <f>A2+1</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <f t="shared" ref="A4:A25" si="0">A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3.4285714285714284</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>8.2857142857142865</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>30.571428571428573</v>
-      </c>
-      <c r="C6" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>97</v>
-      </c>
-      <c r="C7" s="3">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>215.85714285714286</v>
-      </c>
-      <c r="C8" s="3">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>418</v>
-      </c>
-      <c r="C9" s="3">
-        <v>167.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>365.14285714285717</v>
-      </c>
-      <c r="C10" s="3">
-        <v>172.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>253</v>
-      </c>
-      <c r="C11" s="3">
-        <v>142.80000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>218.85714285714286</v>
-      </c>
-      <c r="C12" s="3">
-        <v>148.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>216.57142857142858</v>
-      </c>
-      <c r="C13" s="3">
-        <v>218.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
-        <v>211.71428571428572</v>
-      </c>
-      <c r="C14" s="3">
-        <v>237.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>221.71428571428572</v>
-      </c>
-      <c r="C15" s="3">
-        <v>252.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <v>221.57142857142858</v>
-      </c>
-      <c r="C16" s="3">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <v>251.42857142857142</v>
-      </c>
-      <c r="C17" s="3">
-        <v>409.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="3">
-        <v>263.28571428571428</v>
-      </c>
-      <c r="C18" s="3">
-        <v>521.20000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="3">
-        <v>246.28571428571428</v>
-      </c>
-      <c r="C19" s="3">
-        <v>567.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
-        <v>170.28571428571428</v>
-      </c>
-      <c r="C20" s="3">
-        <v>368.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="3">
-        <v>101.85714285714286</v>
-      </c>
-      <c r="C21" s="3">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="3">
-        <v>65.428571428571431</v>
-      </c>
-      <c r="C22" s="3">
-        <v>175.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="3">
-        <v>45.428571428571431</v>
-      </c>
-      <c r="C23" s="3">
-        <v>129.19999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="3">
-        <v>20.428571428571427</v>
-      </c>
-      <c r="C24" s="3">
-        <v>70.400000000000006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="3">
-        <v>10.857142857142858</v>
-      </c>
-      <c r="C25" s="3">
-        <v>34.200000000000003</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>24.971428571428568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>8.8285714285714292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>11.485714285714288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>37.571428571428569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>119.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>298.25714285714287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>585.79999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>537.34285714285716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>395.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>367.45714285714286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>434.97142857142859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>449.11428571428576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>473.91428571428571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>510.57142857142856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>660.82857142857142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>784.48571428571427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>813.68571428571431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>539.08571428571429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>331.85714285714289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>240.82857142857142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>174.62857142857143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>90.828571428571436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>45.057142857142864</v>
       </c>
     </row>
   </sheetData>

--- a/trafficdata.xlsx
+++ b/trafficdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppham\Documents\R\wd\rcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13F169E-EEFA-443F-B479-EE53DF1EE642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9868C0-6618-48DE-98CD-B739C967A5FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,10 +121,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,901 +386,996 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF02544-4144-42CC-945E-3B1479984431}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K1" sqref="K1:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>45</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>42</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>18</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>22</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>28</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>32</v>
       </c>
-      <c r="H2" s="1">
-        <f>AVERAGE(C2:G2)</f>
+      <c r="I2" s="1">
+        <f>AVERAGE(D2:H2)</f>
         <v>23</v>
       </c>
-      <c r="I2" s="1">
-        <f>AVERAGE(A2:B2)</f>
+      <c r="J2" s="1">
+        <f>AVERAGE(B2:C2)</f>
         <v>43.5</v>
       </c>
-      <c r="J2" s="1">
-        <f>AVERAGE(A2:G2)</f>
+      <c r="K2" s="1">
+        <f>AVERAGE(B2:H2)</f>
         <v>28.857142857142858</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>18</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>21</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>15</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>13</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>10</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>13</v>
       </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H25" si="0">AVERAGE(C3:G3)</f>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I25" si="0">AVERAGE(D3:H3)</f>
         <v>11.6</v>
       </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I25" si="1">AVERAGE(A3:B3)</f>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J25" si="1">AVERAGE(B3:C3)</f>
         <v>19.5</v>
       </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:J25" si="2">AVERAGE(A3:G3)</f>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K25" si="2">AVERAGE(B3:H3)</f>
         <v>13.857142857142858</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>15</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A25" si="3">A3+1</f>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
       </c>
       <c r="C4" s="1">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>9</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>7</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>10</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <f t="shared" si="2"/>
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
         <v>12</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>13</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>11</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>13</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>13</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>12</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <f t="shared" si="0"/>
         <v>11.8</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
         <v>14</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>15</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>42</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>53</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>51</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>42</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>41</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <f t="shared" si="0"/>
         <v>45.8</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <f t="shared" si="2"/>
         <v>36.857142857142854</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
         <v>29</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>37</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>153</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>150</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>143</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>173</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>125</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <f t="shared" si="0"/>
         <v>148.80000000000001</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <f t="shared" si="2"/>
         <v>115.71428571428571</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
         <v>89</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>75</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>347</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>394</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>385</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>363</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>312</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <f t="shared" si="0"/>
         <v>360.2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <f t="shared" si="2"/>
         <v>280.71428571428572</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
         <v>158</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>114</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>737</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>720</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>750</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>725</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>647</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <f t="shared" si="0"/>
         <v>715.8</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <f t="shared" si="2"/>
         <v>550.14285714285711</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
         <v>244</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>203</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>587</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>636</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>630</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>611</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>647</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <f t="shared" si="0"/>
         <v>622.20000000000005</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <f t="shared" si="1"/>
         <v>223.5</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <f t="shared" si="2"/>
         <v>508.28571428571428</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
         <v>400</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>314</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>393</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>406</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>396</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>397</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>436</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <f t="shared" si="0"/>
         <v>405.6</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <f t="shared" si="1"/>
         <v>357</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <f t="shared" si="2"/>
         <v>391.71428571428572</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
         <v>433</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>435</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>325</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>328</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>383</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>353</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>385</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <f t="shared" si="0"/>
         <v>354.8</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <f t="shared" si="1"/>
         <v>434</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <f t="shared" si="2"/>
         <v>377.42857142857144</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
         <v>482</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>463</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>401</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>400</v>
-      </c>
-      <c r="E13" s="1">
-        <v>432</v>
       </c>
       <c r="F13" s="1">
         <v>432</v>
       </c>
       <c r="G13" s="1">
+        <v>432</v>
+      </c>
+      <c r="H13" s="1">
         <v>479</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <f t="shared" si="0"/>
         <v>428.8</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <f t="shared" si="1"/>
         <v>472.5</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <f t="shared" si="2"/>
         <v>441.28571428571428</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
         <v>494</v>
-      </c>
-      <c r="B14" s="1">
-        <v>415</v>
       </c>
       <c r="C14" s="1">
         <v>415</v>
       </c>
       <c r="D14" s="1">
+        <v>415</v>
+      </c>
+      <c r="E14" s="1">
         <v>406</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>442</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>450</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>528</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <f t="shared" si="0"/>
         <v>448.2</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <f t="shared" si="1"/>
         <v>454.5</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
         <v>505</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="1">
         <v>479</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>444</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>447</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>432</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>464</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>552</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <f t="shared" si="0"/>
         <v>467.8</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <f t="shared" si="1"/>
         <v>492</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <f t="shared" si="2"/>
         <v>474.71428571428572</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
         <v>484</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C16" s="1">
         <v>461</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>489</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>506</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>491</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>507</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>601</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <f t="shared" si="0"/>
         <v>518.79999999999995</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <f t="shared" si="1"/>
         <v>472.5</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <f t="shared" si="2"/>
         <v>505.57142857142856</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
         <v>551</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C17" s="1">
         <v>454</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>663</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>676</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>655</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>675</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>681</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <f t="shared" si="0"/>
         <v>670</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <f t="shared" si="1"/>
         <v>502.5</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <f t="shared" si="2"/>
         <v>622.14285714285711</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
         <v>498</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C18" s="1">
         <v>511</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>785</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>813</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>840</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>760</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>812</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <f t="shared" si="0"/>
         <v>802</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <f t="shared" si="1"/>
         <v>504.5</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <f t="shared" si="2"/>
         <v>717</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
         <v>432</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="1">
         <v>406</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>823</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>899</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>854</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>835</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>788</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <f t="shared" si="0"/>
         <v>839.8</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <f t="shared" si="1"/>
         <v>419</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <f t="shared" si="2"/>
         <v>719.57142857142856</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
         <v>356</v>
       </c>
-      <c r="B20" s="1">
+      <c r="C20" s="1">
         <v>380</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>533</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>551</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>558</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>576</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>531</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <f t="shared" si="0"/>
         <v>549.79999999999995</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <f t="shared" si="1"/>
         <v>368</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <f t="shared" si="2"/>
         <v>497.85714285714283</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
         <v>244</v>
       </c>
-      <c r="B21" s="1">
+      <c r="C21" s="1">
         <v>211</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>325</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>350</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>386</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>337</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>317</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <f t="shared" si="0"/>
         <v>343</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <f t="shared" si="1"/>
         <v>227.5</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <f t="shared" si="2"/>
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
         <v>225</v>
       </c>
-      <c r="B22" s="1">
+      <c r="C22" s="1">
         <v>161</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>223</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>232</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>243</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>252</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>262</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <f t="shared" si="0"/>
         <v>242.4</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <f t="shared" si="1"/>
         <v>193</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <f t="shared" si="2"/>
         <v>228.28571428571428</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
         <v>181</v>
       </c>
-      <c r="B23" s="1">
+      <c r="C23" s="1">
         <v>109</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>150</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>152</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>180</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>177</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>215</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <f t="shared" si="0"/>
         <v>174.8</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <f t="shared" si="2"/>
         <v>166.28571428571428</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
         <v>131</v>
       </c>
-      <c r="B24" s="1">
+      <c r="C24" s="1">
         <v>51</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>61</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>76</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>96</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>100</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>115</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <f t="shared" si="0"/>
         <v>89.6</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
         <v>65</v>
       </c>
-      <c r="B25" s="1">
+      <c r="C25" s="1">
         <v>38</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>31</v>
-      </c>
-      <c r="D25" s="1">
-        <v>32</v>
       </c>
       <c r="E25" s="1">
         <v>32</v>
       </c>
       <c r="F25" s="1">
+        <v>32</v>
+      </c>
+      <c r="G25" s="1">
         <v>55</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>69</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <f t="shared" si="0"/>
         <v>43.8</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <f t="shared" si="1"/>
         <v>51.5</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="H2:I25" formulaRange="1"/>
+    <ignoredError sqref="I2:J25 K2" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>